--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Desktop\Code\python\static-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076D9B8A-2BED-4509-8563-9F12E917F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACDC06-6314-4AC3-BBA4-587BC90AACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{921ED6D7-A160-42D5-A780-A3589084E894}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>UPC/SKU/MODEL</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Travel / Luggage</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N/A</t>
   </si>
 </sst>
 </file>
@@ -233,8 +239,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0000000000"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0000000000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -278,13 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +631,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,6 +885,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -891,8 +900,14 @@
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
@@ -905,8 +920,14 @@
       <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
@@ -924,6 +945,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -940,7 +964,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
@@ -953,8 +980,14 @@
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -967,8 +1000,14 @@
       <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -981,8 +1020,14 @@
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
@@ -992,8 +1037,17 @@
       <c r="D20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1006,8 +1060,14 @@
       <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1020,8 +1080,14 @@
       <c r="E22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1034,8 +1100,14 @@
       <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
@@ -1048,8 +1120,14 @@
       <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
@@ -1066,7 +1144,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
@@ -1083,7 +1164,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
@@ -1096,8 +1180,14 @@
       <c r="E27" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1110,8 +1200,14 @@
       <c r="E28" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1123,6 +1219,9 @@
       </c>
       <c r="E29" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Desktop\Code\python\static-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACDC06-6314-4AC3-BBA4-587BC90AACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F669D0-2B24-4E92-A6F8-0EB29C749169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{921ED6D7-A160-42D5-A780-A3589084E894}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>UPC/SKU/MODEL</t>
   </si>
@@ -146,21 +146,12 @@
     <t>Like new with tags - Used 1 time</t>
   </si>
   <si>
-    <t>Squishmallows</t>
-  </si>
-  <si>
     <t>Toys / Plush</t>
   </si>
   <si>
     <t>$5 to $10</t>
   </si>
   <si>
-    <t>$2 to $10 depending on size</t>
-  </si>
-  <si>
-    <t>$2 to $10</t>
-  </si>
-  <si>
     <t>3 tier utility cart</t>
   </si>
   <si>
@@ -231,13 +222,26 @@
   </si>
   <si>
     <t xml:space="preserve"> N/A</t>
+  </si>
+  <si>
+    <t>Xtra Small Squishmallows</t>
+  </si>
+  <si>
+    <t>25+</t>
+  </si>
+  <si>
+    <t>Medium Squishmallows</t>
+  </si>
+  <si>
+    <t>Large Squishmallows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0000000000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -287,10 +291,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,17 +632,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698EC273-21DF-4CCE-98DA-1FDA3DC5E504}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
@@ -651,7 +655,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -668,10 +672,10 @@
       <c r="A2" s="2">
         <v>673419401227</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>50</v>
       </c>
       <c r="D2" s="1">
@@ -688,10 +692,10 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>75</v>
       </c>
       <c r="D3" s="1">
@@ -708,10 +712,10 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
       <c r="D4" s="1">
@@ -728,10 +732,10 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>125</v>
       </c>
       <c r="D5" s="1">
@@ -748,10 +752,10 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>135</v>
       </c>
       <c r="D6" s="1">
@@ -768,10 +772,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>135</v>
       </c>
       <c r="D7" s="1">
@@ -788,10 +792,10 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>165</v>
       </c>
       <c r="D8" s="1">
@@ -808,10 +812,10 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>165</v>
       </c>
       <c r="D9" s="1">
@@ -828,10 +832,10 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>200</v>
       </c>
       <c r="D10" s="1">
@@ -848,10 +852,10 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>200</v>
       </c>
       <c r="D11" s="1">
@@ -868,10 +872,10 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>200</v>
       </c>
       <c r="D12" s="1">
@@ -886,12 +890,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -901,37 +905,37 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>50</v>
       </c>
       <c r="D15" s="1">
@@ -945,283 +949,323 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4">
         <v>10</v>
       </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3">
+        <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="4">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="4">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="4">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3">
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3">
         <v>5</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
-        <v>64</v>
+      <c r="F31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
